--- a/Analysis/verification/theoretical_model/bosses/theoretical_model_results_30rep.xlsx
+++ b/Analysis/verification/theoretical_model/bosses/theoretical_model_results_30rep.xlsx
@@ -75,7 +75,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -104,6 +104,11 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -293,7 +298,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -313,7 +318,7 @@
               <a:rPr b="0" sz="1400" spc="-1" strike="noStrike">
                 <a:latin typeface="Arial"/>
               </a:rPr>
-              <a:t>Verification against Theoretical Model Test (E[R])</a:t>
+              <a:t>Verification against Theoretical Model - Mean Response Time E[R]</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -849,11 +854,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="7914409"/>
-        <c:axId val="94042908"/>
+        <c:axId val="84195044"/>
+        <c:axId val="24259148"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="7914409"/>
+        <c:axId val="84195044"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="31"/>
@@ -861,66 +866,22 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="94042908"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="94042908"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="7"/>
-          <c:min val="1"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="b3b3b3"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
-              <a:bodyPr rot="-5400000"/>
+              <a:bodyPr rot="0"/>
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>E[R]</a:t>
+                  <a:t>Repetition</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -955,7 +916,79 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="7914409"/>
+        <c:crossAx val="24259148"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="24259148"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="7"/>
+          <c:min val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="b3b3b3"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="1200" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Response Time [s]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="84195044"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -987,15 +1020,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1203120</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>90000</xdr:rowOff>
+      <xdr:colOff>742320</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>138960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>216360</xdr:colOff>
-      <xdr:row>65</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:colOff>228960</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>146160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1003,8 +1036,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3172680" y="6624000"/>
-        <a:ext cx="7848720" cy="4606560"/>
+        <a:off x="2711880" y="6510240"/>
+        <a:ext cx="8324640" cy="4884120"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1024,11 +1057,11 @@
   </sheetPr>
   <dimension ref="B1:AI32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="60" zoomScaleNormal="60" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M59" activeCellId="0" sqref="M59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
